--- a/output/below_50/tRNA-Phe-GAA-2-1.xlsx
+++ b/output/below_50/tRNA-Phe-GAA-2-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="69">
   <si>
     <t>chr11</t>
   </si>
@@ -219,207 +219,6 @@
   </si>
   <si>
     <t>60</t>
-  </si>
-  <si>
-    <t>59333905</t>
-  </si>
-  <si>
-    <t>59333928</t>
-  </si>
-  <si>
-    <t>59333908</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>GCAGCCGAAATAGCTCAGTT</t>
-  </si>
-  <si>
-    <t>75% (58)</t>
-  </si>
-  <si>
-    <t>39% (40)</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 4, Doench 2016: 75%, Moreno-Mateos: 39%</t>
-  </si>
-  <si>
-    <t>3.65167E+11</t>
-  </si>
-  <si>
-    <t>59333906</t>
-  </si>
-  <si>
-    <t>59333929</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>59333909</t>
-  </si>
-  <si>
-    <t>GGCAGCCGAAATAGCTCAGT</t>
-  </si>
-  <si>
-    <t>50% (50)</t>
-  </si>
-  <si>
-    <t>44% (42)</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 8, Doench 2016: 50%, Moreno-Mateos: 44%</t>
-  </si>
-  <si>
-    <t>2.74401E+11</t>
-  </si>
-  <si>
-    <t>59333927</t>
-  </si>
-  <si>
-    <t>59333950</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>59333930</t>
-  </si>
-  <si>
-    <t>AAAAAGAAAAACGTCTTCCA</t>
-  </si>
-  <si>
-    <t>84% (61)</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 49, Doench 2016: 84%, Moreno-Mateos: 33%</t>
-  </si>
-  <si>
-    <t>3.69237E+11</t>
-  </si>
-  <si>
-    <t>59334127</t>
-  </si>
-  <si>
-    <t>59334150</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>59334130</t>
-  </si>
-  <si>
-    <t>AATGAAAAAAGCAAATTGCA</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 19, Doench 2016: 69%, Moreno-Mateos: 33%</t>
-  </si>
-  <si>
-    <t>1.40093E+11</t>
-  </si>
-  <si>
-    <t>59334128</t>
-  </si>
-  <si>
-    <t>59334151</t>
-  </si>
-  <si>
-    <t>59334131</t>
-  </si>
-  <si>
-    <t>AAATGAAAAAAGCAAATTGC</t>
-  </si>
-  <si>
-    <t>19% (38)</t>
-  </si>
-  <si>
-    <t>2% (10)</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 12, Doench 2016: 19%, Moreno-Mateos: 2%</t>
-  </si>
-  <si>
-    <t>2.32727E+11</t>
-  </si>
-  <si>
-    <t>59334143</t>
-  </si>
-  <si>
-    <t>59334166</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>59334163</t>
-  </si>
-  <si>
-    <t>TTTCATTTAAAAACATATTA</t>
-  </si>
-  <si>
-    <t>3% (22)</t>
-  </si>
-  <si>
-    <t>0% (-7)</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 21, Doench 2016: 3%, Moreno-Mateos: 0%</t>
-  </si>
-  <si>
-    <t>41831963257</t>
-  </si>
-  <si>
-    <t>59334284</t>
-  </si>
-  <si>
-    <t>59334307</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>59334287</t>
-  </si>
-  <si>
-    <t>TAATAATGAGATATAGAAAA</t>
-  </si>
-  <si>
-    <t>5% (26)</t>
-  </si>
-  <si>
-    <t>59% (49)</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 25, Doench 2016: 5%, Moreno-Mateos: 59%</t>
-  </si>
-  <si>
-    <t>14926549812</t>
   </si>
 </sst>
 </file>
@@ -464,7 +263,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -942,419 +741,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N9" t="s">
-        <v>74</v>
-      </c>
-      <c r="O9" t="s">
-        <v>75</v>
-      </c>
-      <c r="P9" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>38</v>
-      </c>
-      <c r="R9" t="s">
-        <v>77</v>
-      </c>
-      <c r="S9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" t="s">
-        <v>72</v>
-      </c>
-      <c r="J10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" t="s">
-        <v>83</v>
-      </c>
-      <c r="L10" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10" t="s">
-        <v>81</v>
-      </c>
-      <c r="N10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O10" t="s">
-        <v>85</v>
-      </c>
-      <c r="P10" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>46</v>
-      </c>
-      <c r="R10" t="s">
-        <v>86</v>
-      </c>
-      <c r="S10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" t="s">
-        <v>72</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" t="s">
-        <v>92</v>
-      </c>
-      <c r="L11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" t="s">
-        <v>90</v>
-      </c>
-      <c r="N11" t="s">
-        <v>93</v>
-      </c>
-      <c r="O11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P11" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>38</v>
-      </c>
-      <c r="R11" t="s">
-        <v>95</v>
-      </c>
-      <c r="S11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" t="s">
-        <v>72</v>
-      </c>
-      <c r="J12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" t="s">
-        <v>101</v>
-      </c>
-      <c r="L12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" t="s">
-        <v>99</v>
-      </c>
-      <c r="N12" t="s">
-        <v>51</v>
-      </c>
-      <c r="O12" t="s">
-        <v>29</v>
-      </c>
-      <c r="P12" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>14</v>
-      </c>
-      <c r="R12" t="s">
-        <v>103</v>
-      </c>
-      <c r="S12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H13" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" t="s">
-        <v>108</v>
-      </c>
-      <c r="L13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M13" t="s">
-        <v>94</v>
-      </c>
-      <c r="N13" t="s">
-        <v>109</v>
-      </c>
-      <c r="O13" t="s">
-        <v>110</v>
-      </c>
-      <c r="P13" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>61</v>
-      </c>
-      <c r="R13" t="s">
-        <v>112</v>
-      </c>
-      <c r="S13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>114</v>
-      </c>
-      <c r="G14" t="s">
-        <v>117</v>
-      </c>
-      <c r="H14" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" t="s">
-        <v>72</v>
-      </c>
-      <c r="J14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" t="s">
-        <v>118</v>
-      </c>
-      <c r="L14" t="s">
-        <v>50</v>
-      </c>
-      <c r="M14" t="s">
-        <v>116</v>
-      </c>
-      <c r="N14" t="s">
-        <v>119</v>
-      </c>
-      <c r="O14" t="s">
-        <v>120</v>
-      </c>
-      <c r="P14" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>122</v>
-      </c>
-      <c r="R14" t="s">
-        <v>123</v>
-      </c>
-      <c r="S14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" t="s">
-        <v>72</v>
-      </c>
-      <c r="I15" t="s">
-        <v>72</v>
-      </c>
-      <c r="J15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" t="s">
-        <v>129</v>
-      </c>
-      <c r="L15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M15" t="s">
-        <v>127</v>
-      </c>
-      <c r="N15" t="s">
-        <v>130</v>
-      </c>
-      <c r="O15" t="s">
-        <v>131</v>
-      </c>
-      <c r="P15" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>133</v>
-      </c>
-      <c r="R15" t="s">
-        <v>134</v>
-      </c>
-      <c r="S15" t="s">
-        <v>135</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
